--- a/data/trans_orig/P14C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC058DF7-DCF3-4B06-9A5E-E37F543D84E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B992C9B-B986-48CA-B99B-69849B38295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{449E1163-002A-45D8-8D40-88C1B49CF0FE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{74BBADBE-9506-47F4-A9E1-15821A1EFA99}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Población según el tiempo de diagnóstico de la colesterol en 2015 (Tasa respuesta: 11,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>74,31%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,28 +134,28 @@
     <t>9,85%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,79 @@
     <t>62,5%</t>
   </si>
   <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>11,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,52 +248,55 @@
     <t>60,78%</t>
   </si>
   <si>
-    <t>45,07%</t>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>66,0%</t>
   </si>
   <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
   </si>
   <si>
     <t>4,26%</t>
@@ -305,100 +305,103 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>12,84%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>28,45%</t>
+    <t>26,85%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>67,77%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>69,91%</t>
   </si>
   <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>9,72%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416EDFFF-BDF3-4C57-8255-3328AB967C3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A0FA34-5FB8-48F7-826B-768000EA840F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1120,7 @@
         <v>416</v>
       </c>
       <c r="N7" s="7">
-        <v>440396</v>
+        <v>440397</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1278,10 +1281,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,7 +1340,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1349,13 +1352,13 @@
         <v>27412</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -1690,10 +1693,10 @@
         <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C04-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B992C9B-B986-48CA-B99B-69849B38295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA006822-901A-42B1-A0CA-DD5533FA14DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{74BBADBE-9506-47F4-A9E1-15821A1EFA99}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A584FEB-CEDC-4064-8D1C-6E4E4004F05F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la colesterol en 2015 (Tasa respuesta: 11,78%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la colesterol en 2016 (Tasa respuesta: 11,78%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>74,31%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,211 +134,214 @@
     <t>9,85%</t>
   </si>
   <si>
-    <t>6,22%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
     <t>67,77%</t>
   </si>
   <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>69,91%</t>
@@ -347,61 +350,61 @@
     <t>66,66%</t>
   </si>
   <si>
-    <t>73,43%</t>
+    <t>73,06%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A0FA34-5FB8-48F7-826B-768000EA840F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9120489-6A7D-48CF-97F6-AA9DADCEC619}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1281,10 +1284,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,7 +1343,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1352,13 +1355,13 @@
         <v>27412</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -1367,13 +1370,13 @@
         <v>25012</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -1382,13 +1385,13 @@
         <v>52424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,13 +1406,13 @@
         <v>15771</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1418,13 +1421,13 @@
         <v>6448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -1433,13 +1436,13 @@
         <v>22219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,13 +1457,13 @@
         <v>1920</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1469,13 +1472,13 @@
         <v>2867</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1484,13 +1487,13 @@
         <v>4787</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,13 +1561,13 @@
         <v>259396</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>283</v>
@@ -1573,13 +1576,13 @@
         <v>324207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>543</v>
@@ -1588,13 +1591,13 @@
         <v>583602</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1612,13 @@
         <v>92804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -1624,13 +1627,13 @@
         <v>94490</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>169</v>
@@ -1639,13 +1642,13 @@
         <v>187295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1663,13 @@
         <v>30579</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -1675,13 +1678,13 @@
         <v>33301</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -1690,13 +1693,13 @@
         <v>63880</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1755,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
